--- a/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Estudios-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5463</v>
+        <v>5678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003937171235829185</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02162213452133535</v>
+        <v>0.02247298658359294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>7823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4205</v>
+        <v>4236</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12381</v>
+        <v>12608</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02157926946519914</v>
+        <v>0.02157926946519915</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01159850358840524</v>
+        <v>0.01168406563804062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03415261365099364</v>
+        <v>0.03477707464699144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -783,19 +783,19 @@
         <v>8818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4550</v>
+        <v>5036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14342</v>
+        <v>15081</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01433372854883839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007396872140696283</v>
+        <v>0.008186763289449003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02331330901750325</v>
+        <v>0.02451423543503607</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>251657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247189</v>
+        <v>246974</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>252652</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9960628287641708</v>
+        <v>0.9960628287641707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9783778654786651</v>
+        <v>0.9775270134164076</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>354705</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350147</v>
+        <v>349920</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358323</v>
+        <v>358292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9784207305348009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9658473863490074</v>
+        <v>0.9652229253530086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9884014964115951</v>
+        <v>0.9883159343619594</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>916</v>
@@ -854,19 +854,19 @@
         <v>606362</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>600838</v>
+        <v>600099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610630</v>
+        <v>610144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9856662714511615</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9766866909824966</v>
+        <v>0.9754857645649638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9926031278593036</v>
+        <v>0.9918132367105511</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>5906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1910</v>
+        <v>1888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14217</v>
+        <v>13140</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00616171019647621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001992966433211091</v>
+        <v>0.001970226405711404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01483266762384365</v>
+        <v>0.01370905954845712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -979,19 +979,19 @@
         <v>12596</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7262</v>
+        <v>7779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20776</v>
+        <v>20503</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0127812868780751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007368264838189714</v>
+        <v>0.007893782369685425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0210808406235143</v>
+        <v>0.02080432203019508</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1000,19 +1000,19 @@
         <v>18502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12065</v>
+        <v>12057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27501</v>
+        <v>28959</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.009517487044055525</v>
+        <v>0.009517487044055526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006206003843316031</v>
+        <v>0.00620215896558496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01414616942726593</v>
+        <v>0.01489629374111644</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>952601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>944290</v>
+        <v>945367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>956597</v>
+        <v>956619</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9938382898035238</v>
+        <v>0.9938382898035237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851673323761565</v>
+        <v>0.9862909404515429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.998007033566789</v>
+        <v>0.9980297735942886</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1273</v>
@@ -1050,19 +1050,19 @@
         <v>972923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>964743</v>
+        <v>965016</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>978257</v>
+        <v>977740</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9872187131219248</v>
+        <v>0.9872187131219249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9789191593764858</v>
+        <v>0.9791956779698049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9926317351618102</v>
+        <v>0.9921062176303145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2101</v>
@@ -1071,19 +1071,19 @@
         <v>1925523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1916524</v>
+        <v>1915066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1931960</v>
+        <v>1931968</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9904825129559442</v>
+        <v>0.9904825129559446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985853830572734</v>
+        <v>0.9851037062588835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.993793996156684</v>
+        <v>0.9937978410344149</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2575</v>
+        <v>2919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001489778928170876</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007523963321714005</v>
+        <v>0.008529873496910461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1217,19 +1217,19 @@
         <v>2240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7183</v>
+        <v>7241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003249565983801433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007414761399267618</v>
+        <v>0.0007427370620296326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01041843901694249</v>
+        <v>0.01050195960657</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>345478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340423</v>
+        <v>341236</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>347209</v>
@@ -1255,7 +1255,7 @@
         <v>0.9950158329466884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9804550037506803</v>
+        <v>0.9827976419971717</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>341730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339665</v>
+        <v>339321</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>342240</v>
@@ -1276,7 +1276,7 @@
         <v>0.9985102210718291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.992476036678286</v>
+        <v>0.9914701265030896</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>687208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>682265</v>
+        <v>682207</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>688937</v>
+        <v>688936</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9967504340161987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9895815609830572</v>
+        <v>0.9894980403934299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992585238600733</v>
+        <v>0.9992572629379703</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>8631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3896</v>
+        <v>3941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18023</v>
+        <v>17431</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005538694427306535</v>
+        <v>0.005538694427306536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00250034419575901</v>
+        <v>0.002528895964736282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01156543186454738</v>
+        <v>0.01118561679582531</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1413,19 +1413,19 @@
         <v>20929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14068</v>
+        <v>15070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29264</v>
+        <v>30164</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01238201355906253</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008322727307176999</v>
+        <v>0.008915634070809926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01731301938681816</v>
+        <v>0.01784526490029612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1434,19 +1434,19 @@
         <v>29560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21368</v>
+        <v>21036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40437</v>
+        <v>39939</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009099297612554224</v>
+        <v>0.009099297612554225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006577635762444619</v>
+        <v>0.006475276705461813</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01244742191704734</v>
+        <v>0.01229406910767386</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1549737</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1540345</v>
+        <v>1540937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1554472</v>
+        <v>1554427</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9944613055726933</v>
+        <v>0.9944613055726935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9884345681354527</v>
+        <v>0.9888143832041749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974996558042409</v>
+        <v>0.9974711040352637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2333</v>
@@ -1484,19 +1484,19 @@
         <v>1669357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1661022</v>
+        <v>1660122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1676218</v>
+        <v>1675216</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9876179864409373</v>
+        <v>0.9876179864409375</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.982686980613182</v>
+        <v>0.982154735099704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.991677272692823</v>
+        <v>0.9910843659291902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3775</v>
@@ -1505,19 +1505,19 @@
         <v>3219094</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3208217</v>
+        <v>3208715</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3227286</v>
+        <v>3227618</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9909007023874457</v>
+        <v>0.9909007023874458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.987552578082953</v>
+        <v>0.9877059308923262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9934223642375555</v>
+        <v>0.9935247232945381</v>
       </c>
     </row>
     <row r="15">
